--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-08T13:54:50+00:00</t>
+    <t>2024-04-15T07:06:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-15T07:06:55+00:00</t>
+    <t>2024-04-16T07:58:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T07:58:07+00:00</t>
+    <t>2024-04-16T08:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T08:04:57+00:00</t>
+    <t>2024-04-16T08:07:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T08:07:09+00:00</t>
+    <t>2024-04-16T14:08:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2-ballot-2</t>
+    <t>4.0.2-ballot-3</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T14:08:46+00:00</t>
+    <t>2024-04-18T09:01:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-18T09:01:06+00:00</t>
+    <t>2024-04-18T09:17:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-18T09:17:36+00:00</t>
+    <t>2024-04-18T09:19:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T14:05:49+00:00</t>
+    <t>2024-06-18T14:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T14:54:15+00:00</t>
+    <t>2024-06-18T17:21:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2-ballot-3</t>
+    <t>4.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T17:21:18+00:00</t>
+    <t>2024-07-02T09:49:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T09:49:27+00:00</t>
+    <t>2024-07-02T09:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T09:56:41+00:00</t>
+    <t>2024-07-02T09:57:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T09:57:00+00:00</t>
+    <t>2024-07-02T14:05:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T14:05:06+00:00</t>
+    <t>2024-07-02T14:24:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T14:24:18+00:00</t>
+    <t>2024-07-03T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T07:35:44+00:00</t>
+    <t>2024-07-03T12:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from LOINC" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T12:52:21+00:00</t>
+    <t>2024-09-27T09:57:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T09:57:43+00:00</t>
+    <t>2024-09-27T16:26:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T16:26:26+00:00</t>
+    <t>2024-09-27T16:53:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T16:53:13+00:00</t>
+    <t>2024-09-30T21:21:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T21:21:44+00:00</t>
+    <t>2024-10-02T20:14:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T20:14:47+00:00</t>
+    <t>2024-10-03T12:27:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-03T12:27:30+00:00</t>
+    <t>2024-10-04T08:06:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-04T08:06:21+00:00</t>
+    <t>2024-10-04T14:46:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-04T14:46:58+00:00</t>
+    <t>2024-10-07T13:01:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T13:01:26+00:00</t>
+    <t>2024-10-09T12:11:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-09T12:11:40+00:00</t>
+    <t>2024-10-15T12:27:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-15T12:27:57+00:00</t>
+    <t>2024-10-21T08:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-21T08:06:01+00:00</t>
+    <t>2024-10-21T09:33:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-21T09:33:00+00:00</t>
+    <t>2024-10-21T11:49:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-21T11:49:02+00:00</t>
+    <t>2024-10-21T15:03:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-21T15:03:10+00:00</t>
+    <t>2024-11-04T11:32:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T07:56:02+00:00</t>
+    <t>2024-11-25T07:58:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T07:58:23+00:00</t>
+    <t>2024-11-25T09:06:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T09:06:08+00:00</t>
+    <t>2024-11-25T09:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T09:06:42+00:00</t>
+    <t>2024-11-26T13:14:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-26T13:14:13+00:00</t>
+    <t>2024-12-12T08:32:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-12T08:32:59+00:00</t>
+    <t>2024-12-12T09:54:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-12T09:54:48+00:00</t>
+    <t>2024-12-12T16:11:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-12T16:11:50+00:00</t>
+    <t>2024-12-12T16:13:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-12T16:13:29+00:00</t>
+    <t>2024-12-13T09:00:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T09:00:45+00:00</t>
+    <t>2024-12-17T10:42:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T10:42:26+00:00</t>
+    <t>2024-12-17T15:34:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T15:34:44+00:00</t>
+    <t>2024-12-19T12:46:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2</t>
+    <t>4.0.3-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T12:46:51+00:00</t>
+    <t>2024-12-19T14:23:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T14:23:02+00:00</t>
+    <t>2024-12-19T14:31:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T14:31:30+00:00</t>
+    <t>2025-01-09T09:31:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T09:31:59+00:00</t>
+    <t>2025-01-13T14:44:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T14:44:29+00:00</t>
+    <t>2025-01-22T13:25:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-22T13:25:19+00:00</t>
+    <t>2025-01-22T13:26:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-22T13:26:17+00:00</t>
+    <t>2025-01-28T08:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T08:40:54+00:00</t>
+    <t>2025-01-29T16:58:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-29T16:58:30+00:00</t>
+    <t>2025-01-29T17:04:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-29T17:04:40+00:00</t>
+    <t>2025-01-30T14:25:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.3-ballot</t>
+    <t>4.0.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T14:25:53+00:00</t>
+    <t>2025-01-30T15:39:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T17:20:03+00:00</t>
+    <t>2025-03-12T09:03:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T09:03:52+00:00</t>
+    <t>2025-06-10T12:40:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-10T12:40:27+00:00</t>
+    <t>2025-06-16T08:34:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-16T08:34:53+00:00</t>
+    <t>2025-06-16T08:35:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.3</t>
+    <t>4.0.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-16T08:35:57+00:00</t>
+    <t>2025-06-18T13:08:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-18T13:08:40+00:00</t>
+    <t>2025-06-19T08:03:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T08:03:00+00:00</t>
+    <t>2025-10-09T08:51:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.4</t>
+    <t>4.0.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T08:51:23+00:00</t>
+    <t>2025-10-13T12:40:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-13T12:40:15+00:00</t>
+    <t>2025-10-13T13:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-13T13:47:24+00:00</t>
+    <t>2025-10-13T14:26:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-13T14:26:04+00:00</t>
+    <t>2025-10-13T14:36:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-13T14:36:29+00:00</t>
+    <t>2025-10-13T15:03:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.5</t>
+    <t>4.0.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T08:52:01+00:00</t>
+    <t>2025-12-15T14:05:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/main/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-15T14:05:09+00:00</t>
+    <t>2025-12-15T14:12:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
